--- a/Situation_Barrage/situation_barrage.xlsx
+++ b/Situation_Barrage/situation_barrage.xlsx
@@ -446,22 +446,22 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>26/10/23-RESERVES (Mm3)-</t>
+          <t>27/10/23-RESERVES (Mm3)-</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>26/10/23-TAUX DE REMPLISSAGE (%)-</t>
+          <t>27/10/23-TAUX DE REMPLISSAGE (%)-</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>26/10/22-RESERVES (Mm3)-</t>
+          <t>27/10/22-RESERVES (Mm3)-</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>26/10/22-TAUX DE REMPLISSAGE (%)-</t>
+          <t>27/10/22-TAUX DE REMPLISSAGE (%)-</t>
         </is>
       </c>
     </row>
@@ -481,10 +481,10 @@
         <v>57.2</v>
       </c>
       <c r="E2" t="n">
-        <v>300.5</v>
+        <v>299.8</v>
       </c>
       <c r="F2" t="n">
-        <v>44.7</v>
+        <v>44.6</v>
       </c>
     </row>
     <row r="3">
@@ -500,13 +500,13 @@
         <v>18.2</v>
       </c>
       <c r="D3" t="n">
-        <v>82.8</v>
+        <v>82.7</v>
       </c>
       <c r="E3" t="n">
         <v>20.4</v>
       </c>
       <c r="F3" t="n">
-        <v>92.7</v>
+        <v>92.59999999999999</v>
       </c>
     </row>
     <row r="4">
@@ -519,10 +519,10 @@
         <v>29.1</v>
       </c>
       <c r="C4" t="n">
-        <v>8.4</v>
+        <v>8.5</v>
       </c>
       <c r="D4" t="n">
-        <v>28.8</v>
+        <v>29.2</v>
       </c>
       <c r="E4" t="n">
         <v>2</v>
@@ -541,10 +541,10 @@
         <v>300</v>
       </c>
       <c r="C5" t="n">
-        <v>46</v>
+        <v>46.1</v>
       </c>
       <c r="D5" t="n">
-        <v>15.3</v>
+        <v>15.4</v>
       </c>
       <c r="E5" t="n">
         <v>36.9</v>
@@ -563,16 +563,16 @@
         <v>4.21</v>
       </c>
       <c r="C6" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="D6" t="n">
-        <v>45.3</v>
+        <v>45.1</v>
       </c>
       <c r="E6" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="F6" t="n">
-        <v>48.8</v>
+        <v>48.5</v>
       </c>
     </row>
     <row r="7">
@@ -610,7 +610,7 @@
         <v>31.5</v>
       </c>
       <c r="D8" t="n">
-        <v>80.90000000000001</v>
+        <v>80.8</v>
       </c>
       <c r="E8" t="n">
         <v>31.5</v>
@@ -632,13 +632,13 @@
         <v>2.8</v>
       </c>
       <c r="D9" t="n">
-        <v>23.5</v>
+        <v>23.4</v>
       </c>
       <c r="E9" t="n">
         <v>3.3</v>
       </c>
       <c r="F9" t="n">
-        <v>27.8</v>
+        <v>27.6</v>
       </c>
     </row>
     <row r="10">
@@ -654,7 +654,7 @@
         <v>9.800000000000001</v>
       </c>
       <c r="D10" t="n">
-        <v>80</v>
+        <v>79.90000000000001</v>
       </c>
       <c r="E10" t="n">
         <v>10.8</v>
@@ -673,16 +673,16 @@
         <v>121.65</v>
       </c>
       <c r="C11" t="n">
-        <v>101.88</v>
+        <v>101.8</v>
       </c>
       <c r="D11" t="n">
         <v>83.7</v>
       </c>
       <c r="E11" t="n">
-        <v>96.90000000000001</v>
+        <v>96.8</v>
       </c>
       <c r="F11" t="n">
-        <v>79.7</v>
+        <v>79.59999999999999</v>
       </c>
     </row>
     <row r="12">
@@ -742,13 +742,13 @@
         <v>0.6</v>
       </c>
       <c r="D14" t="n">
-        <v>12.3</v>
+        <v>12.2</v>
       </c>
       <c r="E14" t="n">
         <v>0.6</v>
       </c>
       <c r="F14" t="n">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
     </row>
     <row r="15">
@@ -761,16 +761,16 @@
         <v>12.6</v>
       </c>
       <c r="C15" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="D15" t="n">
-        <v>17.8</v>
+        <v>17.7</v>
       </c>
       <c r="E15" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="F15" t="n">
-        <v>39.2</v>
+        <v>39.1</v>
       </c>
     </row>
     <row r="16">
@@ -805,16 +805,16 @@
         <v>239.6</v>
       </c>
       <c r="C17" t="n">
-        <v>84.40000000000001</v>
+        <v>83.40000000000001</v>
       </c>
       <c r="D17" t="n">
-        <v>35.3</v>
+        <v>34.8</v>
       </c>
       <c r="E17" t="n">
-        <v>63.8</v>
+        <v>63.6</v>
       </c>
       <c r="F17" t="n">
-        <v>26.6</v>
+        <v>26.5</v>
       </c>
     </row>
     <row r="18">
@@ -827,16 +827,16 @@
         <v>8.1</v>
       </c>
       <c r="C18" t="n">
-        <v>5.7</v>
+        <v>6.4</v>
       </c>
       <c r="D18" t="n">
-        <v>70.5</v>
+        <v>79</v>
       </c>
       <c r="E18" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="F18" t="n">
-        <v>57.9</v>
+        <v>57.3</v>
       </c>
     </row>
     <row r="19">
@@ -849,7 +849,7 @@
         <v>50.5</v>
       </c>
       <c r="C19" t="n">
-        <v>9.5</v>
+        <v>9.4</v>
       </c>
       <c r="D19" t="n">
         <v>18.7</v>
@@ -874,13 +874,13 @@
         <v>14.9</v>
       </c>
       <c r="D20" t="n">
-        <v>44.2</v>
+        <v>44.1</v>
       </c>
       <c r="E20" t="n">
-        <v>20.9</v>
+        <v>20.8</v>
       </c>
       <c r="F20" t="n">
-        <v>61.7</v>
+        <v>61.6</v>
       </c>
     </row>
     <row r="21">
@@ -899,10 +899,10 @@
         <v>15.8</v>
       </c>
       <c r="E21" t="n">
-        <v>264.4</v>
+        <v>262.6</v>
       </c>
       <c r="F21" t="n">
-        <v>23.4</v>
+        <v>23.2</v>
       </c>
     </row>
     <row r="22">
@@ -915,16 +915,16 @@
         <v>63.8</v>
       </c>
       <c r="C22" t="n">
-        <v>59.4</v>
+        <v>59.7</v>
       </c>
       <c r="D22" t="n">
-        <v>93.09999999999999</v>
+        <v>93.59999999999999</v>
       </c>
       <c r="E22" t="n">
-        <v>55.3</v>
+        <v>55.6</v>
       </c>
       <c r="F22" t="n">
-        <v>86.8</v>
+        <v>87.2</v>
       </c>
     </row>
     <row r="23">
@@ -946,7 +946,7 @@
         <v>84.90000000000001</v>
       </c>
       <c r="F23" t="n">
-        <v>55.6</v>
+        <v>55.5</v>
       </c>
     </row>
     <row r="24">
@@ -962,7 +962,7 @@
         <v>22.5</v>
       </c>
       <c r="D24" t="n">
-        <v>33.4</v>
+        <v>33.3</v>
       </c>
       <c r="E24" t="n">
         <v>22.7</v>
@@ -981,16 +981,16 @@
         <v>44.76</v>
       </c>
       <c r="C25" t="n">
-        <v>34.03</v>
+        <v>33.98</v>
       </c>
       <c r="D25" t="n">
-        <v>76</v>
+        <v>75.90000000000001</v>
       </c>
       <c r="E25" t="n">
         <v>33.9</v>
       </c>
       <c r="F25" t="n">
-        <v>75.8</v>
+        <v>75.7</v>
       </c>
     </row>
     <row r="26">
@@ -1009,7 +1009,7 @@
         <v>41.8</v>
       </c>
       <c r="E26" t="n">
-        <v>130.5</v>
+        <v>130.4</v>
       </c>
       <c r="F26" t="n">
         <v>46.3</v>
@@ -1031,10 +1031,10 @@
         <v>44.4</v>
       </c>
       <c r="E27" t="n">
-        <v>1486.5</v>
+        <v>1483.5</v>
       </c>
       <c r="F27" t="n">
-        <v>42.2</v>
+        <v>42.1</v>
       </c>
     </row>
     <row r="28">
@@ -1047,16 +1047,16 @@
         <v>40.1</v>
       </c>
       <c r="C28" t="n">
-        <v>34</v>
+        <v>33.2</v>
       </c>
       <c r="D28" t="n">
-        <v>84.90000000000001</v>
+        <v>82.90000000000001</v>
       </c>
       <c r="E28" t="n">
-        <v>34.3</v>
+        <v>35</v>
       </c>
       <c r="F28" t="n">
-        <v>85.5</v>
+        <v>87.40000000000001</v>
       </c>
     </row>
     <row r="29">
@@ -1135,16 +1135,16 @@
         <v>974.8</v>
       </c>
       <c r="C32" t="n">
-        <v>147.3</v>
+        <v>147.8</v>
       </c>
       <c r="D32" t="n">
-        <v>15.1</v>
+        <v>15.2</v>
       </c>
       <c r="E32" t="n">
-        <v>267.9</v>
+        <v>267.1</v>
       </c>
       <c r="F32" t="n">
-        <v>27.5</v>
+        <v>27.4</v>
       </c>
     </row>
     <row r="33">
@@ -1160,13 +1160,13 @@
         <v>20.1</v>
       </c>
       <c r="D33" t="n">
-        <v>35.9</v>
+        <v>35.8</v>
       </c>
       <c r="E33" t="n">
-        <v>20.5</v>
+        <v>20.4</v>
       </c>
       <c r="F33" t="n">
-        <v>36.5</v>
+        <v>36.4</v>
       </c>
     </row>
     <row r="34">
@@ -1185,10 +1185,10 @@
         <v>26.1</v>
       </c>
       <c r="E34" t="n">
-        <v>9.5</v>
+        <v>9.4</v>
       </c>
       <c r="F34" t="n">
-        <v>25.4</v>
+        <v>25.3</v>
       </c>
     </row>
     <row r="35">
@@ -1201,13 +1201,13 @@
         <v>1215.5</v>
       </c>
       <c r="C35" t="n">
-        <v>95.5</v>
+        <v>95.90000000000001</v>
       </c>
       <c r="D35" t="n">
         <v>7.9</v>
       </c>
       <c r="E35" t="n">
-        <v>98.3</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="F35" t="n">
         <v>8.1</v>
@@ -1223,10 +1223,10 @@
         <v>236</v>
       </c>
       <c r="C36" t="n">
-        <v>32.8</v>
+        <v>33</v>
       </c>
       <c r="D36" t="n">
-        <v>13.9</v>
+        <v>14</v>
       </c>
       <c r="E36" t="n">
         <v>30.5</v>
@@ -1248,13 +1248,13 @@
         <v>2.2</v>
       </c>
       <c r="D37" t="n">
-        <v>90</v>
+        <v>88.5</v>
       </c>
       <c r="E37" t="n">
-        <v>1.6</v>
+        <v>1</v>
       </c>
       <c r="F37" t="n">
-        <v>64.5</v>
+        <v>40.2</v>
       </c>
     </row>
     <row r="38">
@@ -1267,16 +1267,16 @@
         <v>142.8</v>
       </c>
       <c r="C38" t="n">
-        <v>48.4</v>
+        <v>48.6</v>
       </c>
       <c r="D38" t="n">
-        <v>33.9</v>
+        <v>34</v>
       </c>
       <c r="E38" t="n">
-        <v>15.3</v>
+        <v>15.4</v>
       </c>
       <c r="F38" t="n">
-        <v>10.7</v>
+        <v>10.8</v>
       </c>
     </row>
     <row r="39">
@@ -1292,13 +1292,13 @@
         <v>1.1</v>
       </c>
       <c r="D39" t="n">
-        <v>83.5</v>
+        <v>82.59999999999999</v>
       </c>
       <c r="E39" t="n">
         <v>0.9</v>
       </c>
       <c r="F39" t="n">
-        <v>69</v>
+        <v>67.3</v>
       </c>
     </row>
     <row r="40">
@@ -1311,13 +1311,13 @@
         <v>668.2</v>
       </c>
       <c r="C40" t="n">
-        <v>63.7</v>
+        <v>64.2</v>
       </c>
       <c r="D40" t="n">
-        <v>9.5</v>
+        <v>9.6</v>
       </c>
       <c r="E40" t="n">
-        <v>64.5</v>
+        <v>65</v>
       </c>
       <c r="F40" t="n">
         <v>9.699999999999999</v>
@@ -1333,16 +1333,16 @@
         <v>14.3</v>
       </c>
       <c r="C41" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="D41" t="n">
-        <v>67.40000000000001</v>
+        <v>65.40000000000001</v>
       </c>
       <c r="E41" t="n">
-        <v>10.2</v>
+        <v>10</v>
       </c>
       <c r="F41" t="n">
-        <v>71</v>
+        <v>69.59999999999999</v>
       </c>
     </row>
     <row r="42">
@@ -1355,13 +1355,13 @@
         <v>2657</v>
       </c>
       <c r="C42" t="n">
-        <v>59.9</v>
+        <v>60.4</v>
       </c>
       <c r="D42" t="n">
         <v>2.3</v>
       </c>
       <c r="E42" t="n">
-        <v>125.2</v>
+        <v>125.4</v>
       </c>
       <c r="F42" t="n">
         <v>4.7</v>
@@ -1377,16 +1377,16 @@
         <v>9.4</v>
       </c>
       <c r="C43" t="n">
-        <v>4.6</v>
+        <v>3.6</v>
       </c>
       <c r="D43" t="n">
-        <v>49.2</v>
+        <v>38.4</v>
       </c>
       <c r="E43" t="n">
-        <v>2.4</v>
+        <v>0.9</v>
       </c>
       <c r="F43" t="n">
-        <v>25.1</v>
+        <v>9.5</v>
       </c>
     </row>
     <row r="44">
@@ -1399,16 +1399,16 @@
         <v>6.8</v>
       </c>
       <c r="C44" t="n">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="D44" t="n">
-        <v>42.4</v>
+        <v>47.8</v>
       </c>
       <c r="E44" t="n">
-        <v>3.4</v>
+        <v>3.7</v>
       </c>
       <c r="F44" t="n">
-        <v>50.1</v>
+        <v>55.2</v>
       </c>
     </row>
     <row r="45">
@@ -1424,13 +1424,13 @@
         <v>1.1</v>
       </c>
       <c r="D45" t="n">
-        <v>98.7</v>
+        <v>98.3</v>
       </c>
       <c r="E45" t="n">
         <v>1</v>
       </c>
       <c r="F45" t="n">
-        <v>89.5</v>
+        <v>88.7</v>
       </c>
     </row>
     <row r="46">
@@ -1465,10 +1465,10 @@
         <v>69.34</v>
       </c>
       <c r="C47" t="n">
-        <v>35.62</v>
+        <v>35.94</v>
       </c>
       <c r="D47" t="n">
-        <v>51.4</v>
+        <v>51.8</v>
       </c>
       <c r="E47" t="n">
         <v>21.3</v>
@@ -1487,10 +1487,10 @@
         <v>24.8</v>
       </c>
       <c r="C48" t="n">
-        <v>18.1</v>
+        <v>18.2</v>
       </c>
       <c r="D48" t="n">
-        <v>73</v>
+        <v>73.40000000000001</v>
       </c>
       <c r="E48" t="n">
         <v>15.3</v>
@@ -1509,16 +1509,16 @@
         <v>53.3</v>
       </c>
       <c r="C49" t="n">
-        <v>11.7</v>
+        <v>11.6</v>
       </c>
       <c r="D49" t="n">
-        <v>22</v>
+        <v>21.8</v>
       </c>
       <c r="E49" t="n">
-        <v>11.5</v>
+        <v>11.4</v>
       </c>
       <c r="F49" t="n">
-        <v>21.6</v>
+        <v>21.5</v>
       </c>
     </row>
     <row r="50">
@@ -1556,13 +1556,13 @@
         <v>0.1</v>
       </c>
       <c r="D51" t="n">
-        <v>61.8</v>
+        <v>63.3</v>
       </c>
       <c r="E51" t="n">
         <v>0</v>
       </c>
       <c r="F51" t="n">
-        <v>4</v>
+        <v>5.4</v>
       </c>
     </row>
     <row r="52">
@@ -1584,7 +1584,7 @@
         <v>11.9</v>
       </c>
       <c r="F52" t="n">
-        <v>13.2</v>
+        <v>13.1</v>
       </c>
     </row>
     <row r="53">
@@ -1597,16 +1597,16 @@
         <v>89</v>
       </c>
       <c r="C53" t="n">
-        <v>20.7</v>
+        <v>20.5</v>
       </c>
       <c r="D53" t="n">
-        <v>23.3</v>
+        <v>23.1</v>
       </c>
       <c r="E53" t="n">
-        <v>16.8</v>
+        <v>16.7</v>
       </c>
       <c r="F53" t="n">
-        <v>18.9</v>
+        <v>18.8</v>
       </c>
     </row>
     <row r="54">
@@ -1619,7 +1619,7 @@
         <v>198.4</v>
       </c>
       <c r="C54" t="n">
-        <v>11.2</v>
+        <v>11.3</v>
       </c>
       <c r="D54" t="n">
         <v>5.7</v>
@@ -1644,13 +1644,13 @@
         <v>3.1</v>
       </c>
       <c r="D55" t="n">
-        <v>7.8</v>
+        <v>7.9</v>
       </c>
       <c r="E55" t="n">
-        <v>9.699999999999999</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="F55" t="n">
-        <v>24.4</v>
+        <v>24.6</v>
       </c>
     </row>
     <row r="56">
@@ -1669,10 +1669,10 @@
         <v>36.4</v>
       </c>
       <c r="E56" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="F56" t="n">
-        <v>38.5</v>
+        <v>38.4</v>
       </c>
     </row>
     <row r="57">
@@ -1685,10 +1685,10 @@
         <v>4.7</v>
       </c>
       <c r="C57" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="D57" t="n">
-        <v>37.6</v>
+        <v>37.5</v>
       </c>
       <c r="E57" t="n">
         <v>2.6</v>
@@ -1707,13 +1707,13 @@
         <v>298.9</v>
       </c>
       <c r="C58" t="n">
-        <v>32.8</v>
+        <v>32.7</v>
       </c>
       <c r="D58" t="n">
-        <v>11</v>
+        <v>10.9</v>
       </c>
       <c r="E58" t="n">
-        <v>38.6</v>
+        <v>38.5</v>
       </c>
       <c r="F58" t="n">
         <v>12.9</v>
@@ -1729,7 +1729,7 @@
         <v>445.3</v>
       </c>
       <c r="C59" t="n">
-        <v>62.8</v>
+        <v>62.7</v>
       </c>
       <c r="D59" t="n">
         <v>14.1</v>
@@ -1751,16 +1751,16 @@
         <v>280.2</v>
       </c>
       <c r="C60" t="n">
-        <v>91.8</v>
+        <v>91.7</v>
       </c>
       <c r="D60" t="n">
-        <v>32.8</v>
+        <v>32.7</v>
       </c>
       <c r="E60" t="n">
-        <v>74.8</v>
+        <v>73.8</v>
       </c>
       <c r="F60" t="n">
-        <v>26.7</v>
+        <v>26.3</v>
       </c>
     </row>
     <row r="61">
@@ -1773,13 +1773,13 @@
         <v>312.8</v>
       </c>
       <c r="C61" t="n">
-        <v>87.90000000000001</v>
+        <v>87.8</v>
       </c>
       <c r="D61" t="n">
         <v>28.1</v>
       </c>
       <c r="E61" t="n">
-        <v>70.40000000000001</v>
+        <v>70.3</v>
       </c>
       <c r="F61" t="n">
         <v>22.5</v>

--- a/Situation_Barrage/situation_barrage.xlsx
+++ b/Situation_Barrage/situation_barrage.xlsx
@@ -446,22 +446,22 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>27/10/23-RESERVES (Mm3)-</t>
+          <t>26/10/23-RESERVES (Mm3)-</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>27/10/23-TAUX DE REMPLISSAGE (%)-</t>
+          <t>26/10/23-TAUX DE REMPLISSAGE (%)-</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>27/10/22-RESERVES (Mm3)-</t>
+          <t>26/10/22-RESERVES (Mm3)-</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>27/10/22-TAUX DE REMPLISSAGE (%)-</t>
+          <t>26/10/22-TAUX DE REMPLISSAGE (%)-</t>
         </is>
       </c>
     </row>
@@ -481,10 +481,10 @@
         <v>57.2</v>
       </c>
       <c r="E2" t="n">
-        <v>299.8</v>
+        <v>300.5</v>
       </c>
       <c r="F2" t="n">
-        <v>44.6</v>
+        <v>44.7</v>
       </c>
     </row>
     <row r="3">
@@ -500,13 +500,13 @@
         <v>18.2</v>
       </c>
       <c r="D3" t="n">
-        <v>82.7</v>
+        <v>82.8</v>
       </c>
       <c r="E3" t="n">
         <v>20.4</v>
       </c>
       <c r="F3" t="n">
-        <v>92.59999999999999</v>
+        <v>92.7</v>
       </c>
     </row>
     <row r="4">
@@ -519,10 +519,10 @@
         <v>29.1</v>
       </c>
       <c r="C4" t="n">
-        <v>8.5</v>
+        <v>8.4</v>
       </c>
       <c r="D4" t="n">
-        <v>29.2</v>
+        <v>28.8</v>
       </c>
       <c r="E4" t="n">
         <v>2</v>
@@ -541,10 +541,10 @@
         <v>300</v>
       </c>
       <c r="C5" t="n">
-        <v>46.1</v>
+        <v>46</v>
       </c>
       <c r="D5" t="n">
-        <v>15.4</v>
+        <v>15.3</v>
       </c>
       <c r="E5" t="n">
         <v>36.9</v>
@@ -563,16 +563,16 @@
         <v>4.21</v>
       </c>
       <c r="C6" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="D6" t="n">
-        <v>45.1</v>
+        <v>45.3</v>
       </c>
       <c r="E6" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="F6" t="n">
-        <v>48.5</v>
+        <v>48.8</v>
       </c>
     </row>
     <row r="7">
@@ -610,7 +610,7 @@
         <v>31.5</v>
       </c>
       <c r="D8" t="n">
-        <v>80.8</v>
+        <v>80.90000000000001</v>
       </c>
       <c r="E8" t="n">
         <v>31.5</v>
@@ -632,13 +632,13 @@
         <v>2.8</v>
       </c>
       <c r="D9" t="n">
-        <v>23.4</v>
+        <v>23.5</v>
       </c>
       <c r="E9" t="n">
         <v>3.3</v>
       </c>
       <c r="F9" t="n">
-        <v>27.6</v>
+        <v>27.8</v>
       </c>
     </row>
     <row r="10">
@@ -654,7 +654,7 @@
         <v>9.800000000000001</v>
       </c>
       <c r="D10" t="n">
-        <v>79.90000000000001</v>
+        <v>80</v>
       </c>
       <c r="E10" t="n">
         <v>10.8</v>
@@ -673,16 +673,16 @@
         <v>121.65</v>
       </c>
       <c r="C11" t="n">
-        <v>101.8</v>
+        <v>101.88</v>
       </c>
       <c r="D11" t="n">
         <v>83.7</v>
       </c>
       <c r="E11" t="n">
-        <v>96.8</v>
+        <v>96.90000000000001</v>
       </c>
       <c r="F11" t="n">
-        <v>79.59999999999999</v>
+        <v>79.7</v>
       </c>
     </row>
     <row r="12">
@@ -742,13 +742,13 @@
         <v>0.6</v>
       </c>
       <c r="D14" t="n">
-        <v>12.2</v>
+        <v>12.3</v>
       </c>
       <c r="E14" t="n">
         <v>0.6</v>
       </c>
       <c r="F14" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
     </row>
     <row r="15">
@@ -761,16 +761,16 @@
         <v>12.6</v>
       </c>
       <c r="C15" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="D15" t="n">
-        <v>17.7</v>
+        <v>17.8</v>
       </c>
       <c r="E15" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="F15" t="n">
-        <v>39.1</v>
+        <v>39.2</v>
       </c>
     </row>
     <row r="16">
@@ -805,16 +805,16 @@
         <v>239.6</v>
       </c>
       <c r="C17" t="n">
-        <v>83.40000000000001</v>
+        <v>84.40000000000001</v>
       </c>
       <c r="D17" t="n">
-        <v>34.8</v>
+        <v>35.3</v>
       </c>
       <c r="E17" t="n">
-        <v>63.6</v>
+        <v>63.8</v>
       </c>
       <c r="F17" t="n">
-        <v>26.5</v>
+        <v>26.6</v>
       </c>
     </row>
     <row r="18">
@@ -827,16 +827,16 @@
         <v>8.1</v>
       </c>
       <c r="C18" t="n">
-        <v>6.4</v>
+        <v>5.7</v>
       </c>
       <c r="D18" t="n">
-        <v>79</v>
+        <v>70.5</v>
       </c>
       <c r="E18" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="F18" t="n">
-        <v>57.3</v>
+        <v>57.9</v>
       </c>
     </row>
     <row r="19">
@@ -849,7 +849,7 @@
         <v>50.5</v>
       </c>
       <c r="C19" t="n">
-        <v>9.4</v>
+        <v>9.5</v>
       </c>
       <c r="D19" t="n">
         <v>18.7</v>
@@ -874,13 +874,13 @@
         <v>14.9</v>
       </c>
       <c r="D20" t="n">
-        <v>44.1</v>
+        <v>44.2</v>
       </c>
       <c r="E20" t="n">
-        <v>20.8</v>
+        <v>20.9</v>
       </c>
       <c r="F20" t="n">
-        <v>61.6</v>
+        <v>61.7</v>
       </c>
     </row>
     <row r="21">
@@ -899,10 +899,10 @@
         <v>15.8</v>
       </c>
       <c r="E21" t="n">
-        <v>262.6</v>
+        <v>264.4</v>
       </c>
       <c r="F21" t="n">
-        <v>23.2</v>
+        <v>23.4</v>
       </c>
     </row>
     <row r="22">
@@ -915,16 +915,16 @@
         <v>63.8</v>
       </c>
       <c r="C22" t="n">
-        <v>59.7</v>
+        <v>59.4</v>
       </c>
       <c r="D22" t="n">
-        <v>93.59999999999999</v>
+        <v>93.09999999999999</v>
       </c>
       <c r="E22" t="n">
-        <v>55.6</v>
+        <v>55.3</v>
       </c>
       <c r="F22" t="n">
-        <v>87.2</v>
+        <v>86.8</v>
       </c>
     </row>
     <row r="23">
@@ -946,7 +946,7 @@
         <v>84.90000000000001</v>
       </c>
       <c r="F23" t="n">
-        <v>55.5</v>
+        <v>55.6</v>
       </c>
     </row>
     <row r="24">
@@ -962,7 +962,7 @@
         <v>22.5</v>
       </c>
       <c r="D24" t="n">
-        <v>33.3</v>
+        <v>33.4</v>
       </c>
       <c r="E24" t="n">
         <v>22.7</v>
@@ -981,16 +981,16 @@
         <v>44.76</v>
       </c>
       <c r="C25" t="n">
-        <v>33.98</v>
+        <v>34.03</v>
       </c>
       <c r="D25" t="n">
-        <v>75.90000000000001</v>
+        <v>76</v>
       </c>
       <c r="E25" t="n">
         <v>33.9</v>
       </c>
       <c r="F25" t="n">
-        <v>75.7</v>
+        <v>75.8</v>
       </c>
     </row>
     <row r="26">
@@ -1009,7 +1009,7 @@
         <v>41.8</v>
       </c>
       <c r="E26" t="n">
-        <v>130.4</v>
+        <v>130.5</v>
       </c>
       <c r="F26" t="n">
         <v>46.3</v>
@@ -1031,10 +1031,10 @@
         <v>44.4</v>
       </c>
       <c r="E27" t="n">
-        <v>1483.5</v>
+        <v>1486.5</v>
       </c>
       <c r="F27" t="n">
-        <v>42.1</v>
+        <v>42.2</v>
       </c>
     </row>
     <row r="28">
@@ -1047,16 +1047,16 @@
         <v>40.1</v>
       </c>
       <c r="C28" t="n">
-        <v>33.2</v>
+        <v>34</v>
       </c>
       <c r="D28" t="n">
-        <v>82.90000000000001</v>
+        <v>84.90000000000001</v>
       </c>
       <c r="E28" t="n">
-        <v>35</v>
+        <v>34.3</v>
       </c>
       <c r="F28" t="n">
-        <v>87.40000000000001</v>
+        <v>85.5</v>
       </c>
     </row>
     <row r="29">
@@ -1135,16 +1135,16 @@
         <v>974.8</v>
       </c>
       <c r="C32" t="n">
-        <v>147.8</v>
+        <v>147.3</v>
       </c>
       <c r="D32" t="n">
-        <v>15.2</v>
+        <v>15.1</v>
       </c>
       <c r="E32" t="n">
-        <v>267.1</v>
+        <v>267.9</v>
       </c>
       <c r="F32" t="n">
-        <v>27.4</v>
+        <v>27.5</v>
       </c>
     </row>
     <row r="33">
@@ -1160,13 +1160,13 @@
         <v>20.1</v>
       </c>
       <c r="D33" t="n">
-        <v>35.8</v>
+        <v>35.9</v>
       </c>
       <c r="E33" t="n">
-        <v>20.4</v>
+        <v>20.5</v>
       </c>
       <c r="F33" t="n">
-        <v>36.4</v>
+        <v>36.5</v>
       </c>
     </row>
     <row r="34">
@@ -1185,10 +1185,10 @@
         <v>26.1</v>
       </c>
       <c r="E34" t="n">
-        <v>9.4</v>
+        <v>9.5</v>
       </c>
       <c r="F34" t="n">
-        <v>25.3</v>
+        <v>25.4</v>
       </c>
     </row>
     <row r="35">
@@ -1201,13 +1201,13 @@
         <v>1215.5</v>
       </c>
       <c r="C35" t="n">
-        <v>95.90000000000001</v>
+        <v>95.5</v>
       </c>
       <c r="D35" t="n">
         <v>7.9</v>
       </c>
       <c r="E35" t="n">
-        <v>98.40000000000001</v>
+        <v>98.3</v>
       </c>
       <c r="F35" t="n">
         <v>8.1</v>
@@ -1223,10 +1223,10 @@
         <v>236</v>
       </c>
       <c r="C36" t="n">
-        <v>33</v>
+        <v>32.8</v>
       </c>
       <c r="D36" t="n">
-        <v>14</v>
+        <v>13.9</v>
       </c>
       <c r="E36" t="n">
         <v>30.5</v>
@@ -1248,13 +1248,13 @@
         <v>2.2</v>
       </c>
       <c r="D37" t="n">
-        <v>88.5</v>
+        <v>90</v>
       </c>
       <c r="E37" t="n">
-        <v>1</v>
+        <v>1.6</v>
       </c>
       <c r="F37" t="n">
-        <v>40.2</v>
+        <v>64.5</v>
       </c>
     </row>
     <row r="38">
@@ -1267,16 +1267,16 @@
         <v>142.8</v>
       </c>
       <c r="C38" t="n">
-        <v>48.6</v>
+        <v>48.4</v>
       </c>
       <c r="D38" t="n">
-        <v>34</v>
+        <v>33.9</v>
       </c>
       <c r="E38" t="n">
-        <v>15.4</v>
+        <v>15.3</v>
       </c>
       <c r="F38" t="n">
-        <v>10.8</v>
+        <v>10.7</v>
       </c>
     </row>
     <row r="39">
@@ -1292,13 +1292,13 @@
         <v>1.1</v>
       </c>
       <c r="D39" t="n">
-        <v>82.59999999999999</v>
+        <v>83.5</v>
       </c>
       <c r="E39" t="n">
         <v>0.9</v>
       </c>
       <c r="F39" t="n">
-        <v>67.3</v>
+        <v>69</v>
       </c>
     </row>
     <row r="40">
@@ -1311,13 +1311,13 @@
         <v>668.2</v>
       </c>
       <c r="C40" t="n">
-        <v>64.2</v>
+        <v>63.7</v>
       </c>
       <c r="D40" t="n">
-        <v>9.6</v>
+        <v>9.5</v>
       </c>
       <c r="E40" t="n">
-        <v>65</v>
+        <v>64.5</v>
       </c>
       <c r="F40" t="n">
         <v>9.699999999999999</v>
@@ -1333,16 +1333,16 @@
         <v>14.3</v>
       </c>
       <c r="C41" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="D41" t="n">
-        <v>65.40000000000001</v>
+        <v>67.40000000000001</v>
       </c>
       <c r="E41" t="n">
-        <v>10</v>
+        <v>10.2</v>
       </c>
       <c r="F41" t="n">
-        <v>69.59999999999999</v>
+        <v>71</v>
       </c>
     </row>
     <row r="42">
@@ -1355,13 +1355,13 @@
         <v>2657</v>
       </c>
       <c r="C42" t="n">
-        <v>60.4</v>
+        <v>59.9</v>
       </c>
       <c r="D42" t="n">
         <v>2.3</v>
       </c>
       <c r="E42" t="n">
-        <v>125.4</v>
+        <v>125.2</v>
       </c>
       <c r="F42" t="n">
         <v>4.7</v>
@@ -1377,16 +1377,16 @@
         <v>9.4</v>
       </c>
       <c r="C43" t="n">
-        <v>3.6</v>
+        <v>4.6</v>
       </c>
       <c r="D43" t="n">
-        <v>38.4</v>
+        <v>49.2</v>
       </c>
       <c r="E43" t="n">
-        <v>0.9</v>
+        <v>2.4</v>
       </c>
       <c r="F43" t="n">
-        <v>9.5</v>
+        <v>25.1</v>
       </c>
     </row>
     <row r="44">
@@ -1399,16 +1399,16 @@
         <v>6.8</v>
       </c>
       <c r="C44" t="n">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="D44" t="n">
-        <v>47.8</v>
+        <v>42.4</v>
       </c>
       <c r="E44" t="n">
-        <v>3.7</v>
+        <v>3.4</v>
       </c>
       <c r="F44" t="n">
-        <v>55.2</v>
+        <v>50.1</v>
       </c>
     </row>
     <row r="45">
@@ -1424,13 +1424,13 @@
         <v>1.1</v>
       </c>
       <c r="D45" t="n">
-        <v>98.3</v>
+        <v>98.7</v>
       </c>
       <c r="E45" t="n">
         <v>1</v>
       </c>
       <c r="F45" t="n">
-        <v>88.7</v>
+        <v>89.5</v>
       </c>
     </row>
     <row r="46">
@@ -1465,10 +1465,10 @@
         <v>69.34</v>
       </c>
       <c r="C47" t="n">
-        <v>35.94</v>
+        <v>35.62</v>
       </c>
       <c r="D47" t="n">
-        <v>51.8</v>
+        <v>51.4</v>
       </c>
       <c r="E47" t="n">
         <v>21.3</v>
@@ -1487,10 +1487,10 @@
         <v>24.8</v>
       </c>
       <c r="C48" t="n">
-        <v>18.2</v>
+        <v>18.1</v>
       </c>
       <c r="D48" t="n">
-        <v>73.40000000000001</v>
+        <v>73</v>
       </c>
       <c r="E48" t="n">
         <v>15.3</v>
@@ -1509,16 +1509,16 @@
         <v>53.3</v>
       </c>
       <c r="C49" t="n">
-        <v>11.6</v>
+        <v>11.7</v>
       </c>
       <c r="D49" t="n">
-        <v>21.8</v>
+        <v>22</v>
       </c>
       <c r="E49" t="n">
-        <v>11.4</v>
+        <v>11.5</v>
       </c>
       <c r="F49" t="n">
-        <v>21.5</v>
+        <v>21.6</v>
       </c>
     </row>
     <row r="50">
@@ -1556,13 +1556,13 @@
         <v>0.1</v>
       </c>
       <c r="D51" t="n">
-        <v>63.3</v>
+        <v>61.8</v>
       </c>
       <c r="E51" t="n">
         <v>0</v>
       </c>
       <c r="F51" t="n">
-        <v>5.4</v>
+        <v>4</v>
       </c>
     </row>
     <row r="52">
@@ -1584,7 +1584,7 @@
         <v>11.9</v>
       </c>
       <c r="F52" t="n">
-        <v>13.1</v>
+        <v>13.2</v>
       </c>
     </row>
     <row r="53">
@@ -1597,16 +1597,16 @@
         <v>89</v>
       </c>
       <c r="C53" t="n">
-        <v>20.5</v>
+        <v>20.7</v>
       </c>
       <c r="D53" t="n">
-        <v>23.1</v>
+        <v>23.3</v>
       </c>
       <c r="E53" t="n">
-        <v>16.7</v>
+        <v>16.8</v>
       </c>
       <c r="F53" t="n">
-        <v>18.8</v>
+        <v>18.9</v>
       </c>
     </row>
     <row r="54">
@@ -1619,7 +1619,7 @@
         <v>198.4</v>
       </c>
       <c r="C54" t="n">
-        <v>11.3</v>
+        <v>11.2</v>
       </c>
       <c r="D54" t="n">
         <v>5.7</v>
@@ -1644,13 +1644,13 @@
         <v>3.1</v>
       </c>
       <c r="D55" t="n">
-        <v>7.9</v>
+        <v>7.8</v>
       </c>
       <c r="E55" t="n">
-        <v>9.800000000000001</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="F55" t="n">
-        <v>24.6</v>
+        <v>24.4</v>
       </c>
     </row>
     <row r="56">
@@ -1669,10 +1669,10 @@
         <v>36.4</v>
       </c>
       <c r="E56" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="F56" t="n">
-        <v>38.4</v>
+        <v>38.5</v>
       </c>
     </row>
     <row r="57">
@@ -1685,10 +1685,10 @@
         <v>4.7</v>
       </c>
       <c r="C57" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="D57" t="n">
-        <v>37.5</v>
+        <v>37.6</v>
       </c>
       <c r="E57" t="n">
         <v>2.6</v>
@@ -1707,13 +1707,13 @@
         <v>298.9</v>
       </c>
       <c r="C58" t="n">
-        <v>32.7</v>
+        <v>32.8</v>
       </c>
       <c r="D58" t="n">
-        <v>10.9</v>
+        <v>11</v>
       </c>
       <c r="E58" t="n">
-        <v>38.5</v>
+        <v>38.6</v>
       </c>
       <c r="F58" t="n">
         <v>12.9</v>
@@ -1729,7 +1729,7 @@
         <v>445.3</v>
       </c>
       <c r="C59" t="n">
-        <v>62.7</v>
+        <v>62.8</v>
       </c>
       <c r="D59" t="n">
         <v>14.1</v>
@@ -1751,16 +1751,16 @@
         <v>280.2</v>
       </c>
       <c r="C60" t="n">
-        <v>91.7</v>
+        <v>91.8</v>
       </c>
       <c r="D60" t="n">
-        <v>32.7</v>
+        <v>32.8</v>
       </c>
       <c r="E60" t="n">
-        <v>73.8</v>
+        <v>74.8</v>
       </c>
       <c r="F60" t="n">
-        <v>26.3</v>
+        <v>26.7</v>
       </c>
     </row>
     <row r="61">
@@ -1773,13 +1773,13 @@
         <v>312.8</v>
       </c>
       <c r="C61" t="n">
-        <v>87.8</v>
+        <v>87.90000000000001</v>
       </c>
       <c r="D61" t="n">
         <v>28.1</v>
       </c>
       <c r="E61" t="n">
-        <v>70.3</v>
+        <v>70.40000000000001</v>
       </c>
       <c r="F61" t="n">
         <v>22.5</v>

--- a/Situation_Barrage/situation_barrage.xlsx
+++ b/Situation_Barrage/situation_barrage.xlsx
@@ -446,22 +446,22 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>26/10/23-RESERVES (Mm3)-</t>
+          <t>31/10/23-RESERVES (Mm3)-</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>26/10/23-TAUX DE REMPLISSAGE (%)-</t>
+          <t>31/10/23-TAUX DE REMPLISSAGE (%)-</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>26/10/22-RESERVES (Mm3)-</t>
+          <t>31/10/22-RESERVES (Mm3)-</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>26/10/22-TAUX DE REMPLISSAGE (%)-</t>
+          <t>31/10/22-TAUX DE REMPLISSAGE (%)-</t>
         </is>
       </c>
     </row>
@@ -481,10 +481,10 @@
         <v>57.2</v>
       </c>
       <c r="E2" t="n">
-        <v>300.5</v>
+        <v>297.9</v>
       </c>
       <c r="F2" t="n">
-        <v>44.7</v>
+        <v>44.3</v>
       </c>
     </row>
     <row r="3">
@@ -497,16 +497,16 @@
         <v>22</v>
       </c>
       <c r="C3" t="n">
-        <v>18.2</v>
+        <v>18.1</v>
       </c>
       <c r="D3" t="n">
-        <v>82.8</v>
+        <v>82.40000000000001</v>
       </c>
       <c r="E3" t="n">
         <v>20.4</v>
       </c>
       <c r="F3" t="n">
-        <v>92.7</v>
+        <v>92.5</v>
       </c>
     </row>
     <row r="4">
@@ -519,16 +519,16 @@
         <v>29.1</v>
       </c>
       <c r="C4" t="n">
-        <v>8.4</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="D4" t="n">
-        <v>28.8</v>
+        <v>29.8</v>
       </c>
       <c r="E4" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="F4" t="n">
-        <v>6.9</v>
+        <v>6.6</v>
       </c>
     </row>
     <row r="5">
@@ -541,13 +541,13 @@
         <v>300</v>
       </c>
       <c r="C5" t="n">
-        <v>46</v>
+        <v>46.1</v>
       </c>
       <c r="D5" t="n">
-        <v>15.3</v>
+        <v>15.4</v>
       </c>
       <c r="E5" t="n">
-        <v>36.9</v>
+        <v>36.8</v>
       </c>
       <c r="F5" t="n">
         <v>12.3</v>
@@ -563,16 +563,16 @@
         <v>4.21</v>
       </c>
       <c r="C6" t="n">
-        <v>1.91</v>
+        <v>1.89</v>
       </c>
       <c r="D6" t="n">
-        <v>45.3</v>
+        <v>45</v>
       </c>
       <c r="E6" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="F6" t="n">
-        <v>48.8</v>
+        <v>47.5</v>
       </c>
     </row>
     <row r="7">
@@ -588,13 +588,13 @@
         <v>12.2</v>
       </c>
       <c r="D7" t="n">
-        <v>52</v>
+        <v>51.9</v>
       </c>
       <c r="E7" t="n">
-        <v>14</v>
+        <v>13.9</v>
       </c>
       <c r="F7" t="n">
-        <v>59.9</v>
+        <v>59.3</v>
       </c>
     </row>
     <row r="8">
@@ -607,16 +607,16 @@
         <v>39</v>
       </c>
       <c r="C8" t="n">
-        <v>31.5</v>
+        <v>31.4</v>
       </c>
       <c r="D8" t="n">
-        <v>80.90000000000001</v>
+        <v>80.7</v>
       </c>
       <c r="E8" t="n">
-        <v>31.5</v>
+        <v>31.4</v>
       </c>
       <c r="F8" t="n">
-        <v>80.8</v>
+        <v>80.7</v>
       </c>
     </row>
     <row r="9">
@@ -629,16 +629,16 @@
         <v>11.8</v>
       </c>
       <c r="C9" t="n">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="D9" t="n">
-        <v>23.5</v>
+        <v>23</v>
       </c>
       <c r="E9" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="F9" t="n">
-        <v>27.8</v>
+        <v>27.3</v>
       </c>
     </row>
     <row r="10">
@@ -651,16 +651,16 @@
         <v>12.2</v>
       </c>
       <c r="C10" t="n">
-        <v>9.800000000000001</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="D10" t="n">
-        <v>80</v>
+        <v>79.5</v>
       </c>
       <c r="E10" t="n">
-        <v>10.8</v>
+        <v>10.7</v>
       </c>
       <c r="F10" t="n">
-        <v>87.90000000000001</v>
+        <v>87.8</v>
       </c>
     </row>
     <row r="11">
@@ -673,16 +673,16 @@
         <v>121.65</v>
       </c>
       <c r="C11" t="n">
-        <v>101.88</v>
+        <v>101.77</v>
       </c>
       <c r="D11" t="n">
         <v>83.7</v>
       </c>
       <c r="E11" t="n">
-        <v>96.90000000000001</v>
+        <v>96.40000000000001</v>
       </c>
       <c r="F11" t="n">
-        <v>79.7</v>
+        <v>79.2</v>
       </c>
     </row>
     <row r="12">
@@ -695,13 +695,13 @@
         <v>392.3</v>
       </c>
       <c r="C12" t="n">
-        <v>48</v>
+        <v>47.9</v>
       </c>
       <c r="D12" t="n">
         <v>12.2</v>
       </c>
       <c r="E12" t="n">
-        <v>39.4</v>
+        <v>39.3</v>
       </c>
       <c r="F12" t="n">
         <v>10</v>
@@ -717,7 +717,7 @@
         <v>480.3</v>
       </c>
       <c r="C13" t="n">
-        <v>83.09999999999999</v>
+        <v>83</v>
       </c>
       <c r="D13" t="n">
         <v>17.3</v>
@@ -742,13 +742,13 @@
         <v>0.6</v>
       </c>
       <c r="D14" t="n">
-        <v>12.3</v>
+        <v>11.9</v>
       </c>
       <c r="E14" t="n">
         <v>0.6</v>
       </c>
       <c r="F14" t="n">
-        <v>12.2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15">
@@ -761,16 +761,16 @@
         <v>12.6</v>
       </c>
       <c r="C15" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="D15" t="n">
-        <v>17.8</v>
+        <v>17.4</v>
       </c>
       <c r="E15" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="F15" t="n">
-        <v>39.2</v>
+        <v>38.6</v>
       </c>
     </row>
     <row r="16">
@@ -805,16 +805,16 @@
         <v>239.6</v>
       </c>
       <c r="C17" t="n">
-        <v>84.40000000000001</v>
+        <v>79.8</v>
       </c>
       <c r="D17" t="n">
-        <v>35.3</v>
+        <v>33.3</v>
       </c>
       <c r="E17" t="n">
-        <v>63.8</v>
+        <v>61.7</v>
       </c>
       <c r="F17" t="n">
-        <v>26.6</v>
+        <v>25.8</v>
       </c>
     </row>
     <row r="18">
@@ -827,16 +827,16 @@
         <v>8.1</v>
       </c>
       <c r="C18" t="n">
-        <v>5.7</v>
+        <v>4.9</v>
       </c>
       <c r="D18" t="n">
-        <v>70.5</v>
+        <v>60.3</v>
       </c>
       <c r="E18" t="n">
-        <v>4.7</v>
+        <v>4.4</v>
       </c>
       <c r="F18" t="n">
-        <v>57.9</v>
+        <v>54.7</v>
       </c>
     </row>
     <row r="19">
@@ -849,16 +849,16 @@
         <v>50.5</v>
       </c>
       <c r="C19" t="n">
-        <v>9.5</v>
+        <v>9.4</v>
       </c>
       <c r="D19" t="n">
-        <v>18.7</v>
+        <v>18.6</v>
       </c>
       <c r="E19" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="F19" t="n">
-        <v>16.6</v>
+        <v>16.2</v>
       </c>
     </row>
     <row r="20">
@@ -871,16 +871,16 @@
         <v>33.8</v>
       </c>
       <c r="C20" t="n">
-        <v>14.9</v>
+        <v>14.8</v>
       </c>
       <c r="D20" t="n">
-        <v>44.2</v>
+        <v>43.8</v>
       </c>
       <c r="E20" t="n">
-        <v>20.9</v>
+        <v>20.7</v>
       </c>
       <c r="F20" t="n">
-        <v>61.7</v>
+        <v>61.2</v>
       </c>
     </row>
     <row r="21">
@@ -893,16 +893,16 @@
         <v>1129.6</v>
       </c>
       <c r="C21" t="n">
-        <v>178.3</v>
+        <v>178.1</v>
       </c>
       <c r="D21" t="n">
         <v>15.8</v>
       </c>
       <c r="E21" t="n">
-        <v>264.4</v>
+        <v>251.4</v>
       </c>
       <c r="F21" t="n">
-        <v>23.4</v>
+        <v>22.3</v>
       </c>
     </row>
     <row r="22">
@@ -915,16 +915,16 @@
         <v>63.8</v>
       </c>
       <c r="C22" t="n">
-        <v>59.4</v>
+        <v>58.2</v>
       </c>
       <c r="D22" t="n">
-        <v>93.09999999999999</v>
+        <v>91.3</v>
       </c>
       <c r="E22" t="n">
-        <v>55.3</v>
+        <v>56</v>
       </c>
       <c r="F22" t="n">
-        <v>86.8</v>
+        <v>87.90000000000001</v>
       </c>
     </row>
     <row r="23">
@@ -937,16 +937,16 @@
         <v>152.8</v>
       </c>
       <c r="C23" t="n">
-        <v>72.2</v>
+        <v>72</v>
       </c>
       <c r="D23" t="n">
-        <v>47.2</v>
+        <v>47.1</v>
       </c>
       <c r="E23" t="n">
-        <v>84.90000000000001</v>
+        <v>84.7</v>
       </c>
       <c r="F23" t="n">
-        <v>55.6</v>
+        <v>55.4</v>
       </c>
     </row>
     <row r="24">
@@ -959,16 +959,16 @@
         <v>67.40000000000001</v>
       </c>
       <c r="C24" t="n">
-        <v>22.5</v>
+        <v>22.4</v>
       </c>
       <c r="D24" t="n">
-        <v>33.4</v>
+        <v>33.3</v>
       </c>
       <c r="E24" t="n">
-        <v>22.7</v>
+        <v>22.6</v>
       </c>
       <c r="F24" t="n">
-        <v>33.7</v>
+        <v>33.6</v>
       </c>
     </row>
     <row r="25">
@@ -981,16 +981,16 @@
         <v>44.76</v>
       </c>
       <c r="C25" t="n">
-        <v>34.03</v>
+        <v>33.82</v>
       </c>
       <c r="D25" t="n">
-        <v>76</v>
+        <v>75.5</v>
       </c>
       <c r="E25" t="n">
-        <v>33.9</v>
+        <v>33.6</v>
       </c>
       <c r="F25" t="n">
-        <v>75.8</v>
+        <v>75</v>
       </c>
     </row>
     <row r="26">
@@ -1003,16 +1003,16 @@
         <v>281.7</v>
       </c>
       <c r="C26" t="n">
-        <v>117.8</v>
+        <v>117.7</v>
       </c>
       <c r="D26" t="n">
         <v>41.8</v>
       </c>
       <c r="E26" t="n">
-        <v>130.5</v>
+        <v>130.1</v>
       </c>
       <c r="F26" t="n">
-        <v>46.3</v>
+        <v>46.2</v>
       </c>
     </row>
     <row r="27">
@@ -1025,16 +1025,16 @@
         <v>3522.3</v>
       </c>
       <c r="C27" t="n">
-        <v>1562.2</v>
+        <v>1553.9</v>
       </c>
       <c r="D27" t="n">
-        <v>44.4</v>
+        <v>44.1</v>
       </c>
       <c r="E27" t="n">
-        <v>1486.5</v>
+        <v>1471.8</v>
       </c>
       <c r="F27" t="n">
-        <v>42.2</v>
+        <v>41.8</v>
       </c>
     </row>
     <row r="28">
@@ -1047,16 +1047,16 @@
         <v>40.1</v>
       </c>
       <c r="C28" t="n">
-        <v>34</v>
+        <v>29.9</v>
       </c>
       <c r="D28" t="n">
-        <v>84.90000000000001</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="E28" t="n">
-        <v>34.3</v>
+        <v>39.3</v>
       </c>
       <c r="F28" t="n">
-        <v>85.5</v>
+        <v>98</v>
       </c>
     </row>
     <row r="29">
@@ -1069,16 +1069,16 @@
         <v>216.4</v>
       </c>
       <c r="C29" t="n">
-        <v>62.4</v>
+        <v>62.3</v>
       </c>
       <c r="D29" t="n">
         <v>28.8</v>
       </c>
       <c r="E29" t="n">
-        <v>50.9</v>
+        <v>55.2</v>
       </c>
       <c r="F29" t="n">
-        <v>23.5</v>
+        <v>25.5</v>
       </c>
     </row>
     <row r="30">
@@ -1122,7 +1122,7 @@
         <v>1.3</v>
       </c>
       <c r="F31" t="n">
-        <v>9.199999999999999</v>
+        <v>9.1</v>
       </c>
     </row>
     <row r="32">
@@ -1135,16 +1135,16 @@
         <v>974.8</v>
       </c>
       <c r="C32" t="n">
-        <v>147.3</v>
+        <v>149.8</v>
       </c>
       <c r="D32" t="n">
-        <v>15.1</v>
+        <v>15.4</v>
       </c>
       <c r="E32" t="n">
-        <v>267.9</v>
+        <v>263.7</v>
       </c>
       <c r="F32" t="n">
-        <v>27.5</v>
+        <v>27.1</v>
       </c>
     </row>
     <row r="33">
@@ -1157,16 +1157,16 @@
         <v>56.1</v>
       </c>
       <c r="C33" t="n">
-        <v>20.1</v>
+        <v>20</v>
       </c>
       <c r="D33" t="n">
-        <v>35.9</v>
+        <v>35.7</v>
       </c>
       <c r="E33" t="n">
-        <v>20.5</v>
+        <v>20.3</v>
       </c>
       <c r="F33" t="n">
-        <v>36.5</v>
+        <v>36.3</v>
       </c>
     </row>
     <row r="34">
@@ -1182,13 +1182,13 @@
         <v>9.699999999999999</v>
       </c>
       <c r="D34" t="n">
-        <v>26.1</v>
+        <v>26</v>
       </c>
       <c r="E34" t="n">
-        <v>9.5</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="F34" t="n">
-        <v>25.4</v>
+        <v>25</v>
       </c>
     </row>
     <row r="35">
@@ -1201,13 +1201,13 @@
         <v>1215.5</v>
       </c>
       <c r="C35" t="n">
-        <v>95.5</v>
+        <v>94.3</v>
       </c>
       <c r="D35" t="n">
-        <v>7.9</v>
+        <v>7.8</v>
       </c>
       <c r="E35" t="n">
-        <v>98.3</v>
+        <v>98.5</v>
       </c>
       <c r="F35" t="n">
         <v>8.1</v>
@@ -1223,16 +1223,16 @@
         <v>236</v>
       </c>
       <c r="C36" t="n">
-        <v>32.8</v>
+        <v>33.5</v>
       </c>
       <c r="D36" t="n">
-        <v>13.9</v>
+        <v>14.2</v>
       </c>
       <c r="E36" t="n">
-        <v>30.5</v>
+        <v>29.9</v>
       </c>
       <c r="F36" t="n">
-        <v>12.9</v>
+        <v>12.7</v>
       </c>
     </row>
     <row r="37">
@@ -1248,13 +1248,13 @@
         <v>2.2</v>
       </c>
       <c r="D37" t="n">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E37" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="F37" t="n">
-        <v>64.5</v>
+        <v>59.8</v>
       </c>
     </row>
     <row r="38">
@@ -1267,16 +1267,16 @@
         <v>142.8</v>
       </c>
       <c r="C38" t="n">
-        <v>48.4</v>
+        <v>49</v>
       </c>
       <c r="D38" t="n">
-        <v>33.9</v>
+        <v>34.3</v>
       </c>
       <c r="E38" t="n">
-        <v>15.3</v>
+        <v>15.8</v>
       </c>
       <c r="F38" t="n">
-        <v>10.7</v>
+        <v>11.1</v>
       </c>
     </row>
     <row r="39">
@@ -1289,16 +1289,16 @@
         <v>1.4</v>
       </c>
       <c r="C39" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="D39" t="n">
-        <v>83.5</v>
+        <v>70.59999999999999</v>
       </c>
       <c r="E39" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="F39" t="n">
-        <v>69</v>
+        <v>62.1</v>
       </c>
     </row>
     <row r="40">
@@ -1311,16 +1311,16 @@
         <v>668.2</v>
       </c>
       <c r="C40" t="n">
-        <v>63.7</v>
+        <v>65.40000000000001</v>
       </c>
       <c r="D40" t="n">
-        <v>9.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="E40" t="n">
-        <v>64.5</v>
+        <v>67.40000000000001</v>
       </c>
       <c r="F40" t="n">
-        <v>9.699999999999999</v>
+        <v>10.1</v>
       </c>
     </row>
     <row r="41">
@@ -1333,16 +1333,16 @@
         <v>14.3</v>
       </c>
       <c r="C41" t="n">
-        <v>9.6</v>
+        <v>8.6</v>
       </c>
       <c r="D41" t="n">
-        <v>67.40000000000001</v>
+        <v>59.9</v>
       </c>
       <c r="E41" t="n">
-        <v>10.2</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="F41" t="n">
-        <v>71</v>
+        <v>64.59999999999999</v>
       </c>
     </row>
     <row r="42">
@@ -1355,16 +1355,16 @@
         <v>2657</v>
       </c>
       <c r="C42" t="n">
-        <v>59.9</v>
+        <v>54.6</v>
       </c>
       <c r="D42" t="n">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="E42" t="n">
-        <v>125.2</v>
+        <v>119.8</v>
       </c>
       <c r="F42" t="n">
-        <v>4.7</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="43">
@@ -1377,16 +1377,16 @@
         <v>9.4</v>
       </c>
       <c r="C43" t="n">
-        <v>4.6</v>
+        <v>0.8</v>
       </c>
       <c r="D43" t="n">
-        <v>49.2</v>
+        <v>8.6</v>
       </c>
       <c r="E43" t="n">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="F43" t="n">
-        <v>25.1</v>
+        <v>23.6</v>
       </c>
     </row>
     <row r="44">
@@ -1402,13 +1402,13 @@
         <v>2.9</v>
       </c>
       <c r="D44" t="n">
-        <v>42.4</v>
+        <v>42.3</v>
       </c>
       <c r="E44" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="F44" t="n">
-        <v>50.1</v>
+        <v>47.8</v>
       </c>
     </row>
     <row r="45">
@@ -1424,7 +1424,7 @@
         <v>1.1</v>
       </c>
       <c r="D45" t="n">
-        <v>98.7</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="E45" t="n">
         <v>1</v>
@@ -1446,13 +1446,13 @@
         <v>8.9</v>
       </c>
       <c r="D46" t="n">
-        <v>57.8</v>
+        <v>57.6</v>
       </c>
       <c r="E46" t="n">
         <v>7.1</v>
       </c>
       <c r="F46" t="n">
-        <v>46.3</v>
+        <v>46.1</v>
       </c>
     </row>
     <row r="47">
@@ -1465,16 +1465,16 @@
         <v>69.34</v>
       </c>
       <c r="C47" t="n">
-        <v>35.62</v>
+        <v>37.25</v>
       </c>
       <c r="D47" t="n">
-        <v>51.4</v>
+        <v>53.7</v>
       </c>
       <c r="E47" t="n">
         <v>21.3</v>
       </c>
       <c r="F47" t="n">
-        <v>30.7</v>
+        <v>30.8</v>
       </c>
     </row>
     <row r="48">
@@ -1487,16 +1487,16 @@
         <v>24.8</v>
       </c>
       <c r="C48" t="n">
-        <v>18.1</v>
+        <v>18.3</v>
       </c>
       <c r="D48" t="n">
-        <v>73</v>
+        <v>73.90000000000001</v>
       </c>
       <c r="E48" t="n">
         <v>15.3</v>
       </c>
       <c r="F48" t="n">
-        <v>61.6</v>
+        <v>61.4</v>
       </c>
     </row>
     <row r="49">
@@ -1509,16 +1509,16 @@
         <v>53.3</v>
       </c>
       <c r="C49" t="n">
-        <v>11.7</v>
+        <v>11.3</v>
       </c>
       <c r="D49" t="n">
-        <v>22</v>
+        <v>21.2</v>
       </c>
       <c r="E49" t="n">
-        <v>11.5</v>
+        <v>11.1</v>
       </c>
       <c r="F49" t="n">
-        <v>21.6</v>
+        <v>20.7</v>
       </c>
     </row>
     <row r="50">
@@ -1531,16 +1531,16 @@
         <v>64.40000000000001</v>
       </c>
       <c r="C50" t="n">
-        <v>24.4</v>
+        <v>24.3</v>
       </c>
       <c r="D50" t="n">
-        <v>37.9</v>
+        <v>37.7</v>
       </c>
       <c r="E50" t="n">
-        <v>32.1</v>
+        <v>31.8</v>
       </c>
       <c r="F50" t="n">
-        <v>49.8</v>
+        <v>49.4</v>
       </c>
     </row>
     <row r="51">
@@ -1556,13 +1556,13 @@
         <v>0.1</v>
       </c>
       <c r="D51" t="n">
-        <v>61.8</v>
+        <v>64.2</v>
       </c>
       <c r="E51" t="n">
         <v>0</v>
       </c>
       <c r="F51" t="n">
-        <v>4</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="52">
@@ -1575,16 +1575,16 @@
         <v>90.59999999999999</v>
       </c>
       <c r="C52" t="n">
-        <v>14.9</v>
+        <v>14.8</v>
       </c>
       <c r="D52" t="n">
-        <v>16.5</v>
+        <v>16.4</v>
       </c>
       <c r="E52" t="n">
-        <v>11.9</v>
+        <v>11.7</v>
       </c>
       <c r="F52" t="n">
-        <v>13.2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="53">
@@ -1597,16 +1597,16 @@
         <v>89</v>
       </c>
       <c r="C53" t="n">
-        <v>20.7</v>
+        <v>20.1</v>
       </c>
       <c r="D53" t="n">
-        <v>23.3</v>
+        <v>22.5</v>
       </c>
       <c r="E53" t="n">
-        <v>16.8</v>
+        <v>16.1</v>
       </c>
       <c r="F53" t="n">
-        <v>18.9</v>
+        <v>18.1</v>
       </c>
     </row>
     <row r="54">
@@ -1619,13 +1619,13 @@
         <v>198.4</v>
       </c>
       <c r="C54" t="n">
-        <v>11.2</v>
+        <v>11.3</v>
       </c>
       <c r="D54" t="n">
         <v>5.7</v>
       </c>
       <c r="E54" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="F54" t="n">
         <v>2.4</v>
@@ -1641,16 +1641,16 @@
         <v>39.8</v>
       </c>
       <c r="C55" t="n">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="D55" t="n">
-        <v>7.8</v>
+        <v>8.4</v>
       </c>
       <c r="E55" t="n">
-        <v>9.699999999999999</v>
+        <v>10.1</v>
       </c>
       <c r="F55" t="n">
-        <v>24.4</v>
+        <v>25.4</v>
       </c>
     </row>
     <row r="56">
@@ -1669,10 +1669,10 @@
         <v>36.4</v>
       </c>
       <c r="E56" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="F56" t="n">
-        <v>38.5</v>
+        <v>38.3</v>
       </c>
     </row>
     <row r="57">
@@ -1685,16 +1685,16 @@
         <v>4.7</v>
       </c>
       <c r="C57" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="D57" t="n">
-        <v>37.6</v>
+        <v>37.2</v>
       </c>
       <c r="E57" t="n">
         <v>2.6</v>
       </c>
       <c r="F57" t="n">
-        <v>56</v>
+        <v>55.5</v>
       </c>
     </row>
     <row r="58">
@@ -1707,16 +1707,16 @@
         <v>298.9</v>
       </c>
       <c r="C58" t="n">
-        <v>32.8</v>
+        <v>32.5</v>
       </c>
       <c r="D58" t="n">
-        <v>11</v>
+        <v>10.9</v>
       </c>
       <c r="E58" t="n">
-        <v>38.6</v>
+        <v>38.2</v>
       </c>
       <c r="F58" t="n">
-        <v>12.9</v>
+        <v>12.8</v>
       </c>
     </row>
     <row r="59">
@@ -1729,16 +1729,16 @@
         <v>445.3</v>
       </c>
       <c r="C59" t="n">
-        <v>62.8</v>
+        <v>62.6</v>
       </c>
       <c r="D59" t="n">
         <v>14.1</v>
       </c>
       <c r="E59" t="n">
-        <v>56.2</v>
+        <v>58.1</v>
       </c>
       <c r="F59" t="n">
-        <v>12.6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="60">
@@ -1751,16 +1751,16 @@
         <v>280.2</v>
       </c>
       <c r="C60" t="n">
-        <v>91.8</v>
+        <v>91.5</v>
       </c>
       <c r="D60" t="n">
-        <v>32.8</v>
+        <v>32.7</v>
       </c>
       <c r="E60" t="n">
-        <v>74.8</v>
+        <v>69.40000000000001</v>
       </c>
       <c r="F60" t="n">
-        <v>26.7</v>
+        <v>24.8</v>
       </c>
     </row>
     <row r="61">
@@ -1773,16 +1773,16 @@
         <v>312.8</v>
       </c>
       <c r="C61" t="n">
-        <v>87.90000000000001</v>
+        <v>87.59999999999999</v>
       </c>
       <c r="D61" t="n">
-        <v>28.1</v>
+        <v>28</v>
       </c>
       <c r="E61" t="n">
-        <v>70.40000000000001</v>
+        <v>70.09999999999999</v>
       </c>
       <c r="F61" t="n">
-        <v>22.5</v>
+        <v>22.4</v>
       </c>
     </row>
     <row r="62">
